--- a/excel/赵六.xlsx
+++ b/excel/赵六.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaron/github/somenzz/code-example/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AB44DFF-F789-D04E-8168-736D412C2270}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE027115-834A-0F48-9500-B3854DFD9539}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="1000" windowWidth="27840" windowHeight="15760" xr2:uid="{69171B60-F53D-AF47-A4B5-0C5C21EAFB68}"/>
+    <workbookView xWindow="680" yWindow="1000" windowWidth="27840" windowHeight="15760" xr2:uid="{A2F48673-4DF2-5141-A8B1-931C9A80E4F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -411,7 +411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFBA3F6-9C38-314D-B3E1-140A14DE7143}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FB24A4-AF46-4746-AE4A-D4F315094E3E}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
